--- a/biology/Médecine/Congestion_(médecine)/Congestion_(médecine).xlsx
+++ b/biology/Médecine/Congestion_(médecine)/Congestion_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Congestion_(m%C3%A9decine)</t>
+          <t>Congestion_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, la congestion (du latin congestio, amas, de congerere, accumuler) est l'augmentation subite de la quantité de sang contenue dans les vaisseaux d'un organe ou d'une partie d'organe.
 Elle s'accompagne d'une dilatation des vaisseaux sanguins, surtout artériels. Le terme est appliqué à différents accidents vasculaires, pulmonaires, cérébraux ou cardiaques, non précisés comme étant hémorragiques ou par infarctus.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Congestion_(m%C3%A9decine)</t>
+          <t>Congestion_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Synonymes et termes associés (parfois désuets)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyperémie, stase, œdème, accident (cérébro-)vasculaire, apoplexie (basilaire / cérébrale / congestive), attaque cardiaque, attaque cérébrale, collapsus vasculaire (périphérique / cérébral)
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Congestion_(m%C3%A9decine)</t>
+          <t>Congestion_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut avoir diverses origines comme une simple réaction inflammatoire ou des réactions liées à des émotions.
 On distingue :
